--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL389_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL389_00002.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\CP05MOAS-GL389\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5952" yWindow="5100" windowWidth="22968" windowHeight="9888" tabRatio="377"/>
+    <workbookView xWindow="5955" yWindow="5100" windowWidth="22965" windowHeight="9885" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>Ref Des</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>N00165</t>
+  </si>
+  <si>
+    <t>CC_bsipar_par_scaling</t>
   </si>
 </sst>
 </file>
@@ -295,7 +298,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,6 +314,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +477,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -547,6 +556,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="77">
@@ -998,22 +1010,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="9" width="19.88671875" customWidth="1"/>
-    <col min="10" max="11" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>39</v>
       </c>
@@ -1051,7 +1063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1095,11 +1107,11 @@
         <v>-70.708333333333329</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
@@ -1118,22 +1130,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.44140625" customWidth="1"/>
+    <col min="1" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1"/>
-    <col min="8" max="8" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
@@ -1198,7 +1210,7 @@
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -1237,7 +1249,7 @@
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1276,7 +1288,7 @@
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -1315,7 +1327,7 @@
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12"/>
@@ -1336,7 +1348,7 @@
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
     </row>
-    <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -1370,7 +1382,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
@@ -1404,7 +1416,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -1438,7 +1450,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1472,7 +1484,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:19" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12"/>
@@ -1488,7 +1500,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
@@ -1518,7 +1530,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:19" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="12"/>
@@ -1534,7 +1546,7 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
@@ -1564,7 +1576,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:19" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="12"/>
@@ -1580,7 +1592,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
@@ -1599,8 +1611,12 @@
       <c r="F16" s="24">
         <v>50167</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
+      <c r="G16" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="31">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="I16" s="10" t="s">
         <v>25</v>
       </c>
@@ -1610,7 +1626,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="12"/>
@@ -1626,7 +1642,7 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>38</v>
       </c>
@@ -1654,7 +1670,7 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="12"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL389_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL389_00002.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>Ref Des</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>CC_bsipar_par_scaling</t>
+  </si>
+  <si>
+    <t>OL000358</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1134,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,7 +1658,9 @@
       <c r="D18" s="12">
         <v>2</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
       <c r="F18" s="12">
         <v>389</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL389_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL389_00002.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="5100" windowWidth="22965" windowHeight="9885" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="5960" yWindow="5100" windowWidth="22960" windowHeight="9880" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$99</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$386</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -767,7 +762,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -802,7 +797,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1017,18 +1012,18 @@
       <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="11" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="9" width="19.83203125" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="30" t="s">
         <v>39</v>
       </c>
@@ -1066,7 +1061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1110,11 +1105,11 @@
         <v>-70.708333333333329</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
@@ -1133,22 +1128,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="30.42578125" customWidth="1"/>
+    <col min="1" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="30">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
@@ -1213,7 +1208,7 @@
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -1252,7 +1247,7 @@
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1291,7 +1286,7 @@
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -1330,7 +1325,7 @@
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12"/>
@@ -1351,7 +1346,7 @@
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
     </row>
-    <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="3" customFormat="1">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -1374,7 +1369,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="21">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>19</v>
@@ -1385,7 +1380,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="3" customFormat="1">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
@@ -1419,7 +1414,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="3" customFormat="1">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -1453,7 +1448,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="3" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1487,7 +1482,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:19" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="3" customFormat="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12"/>
@@ -1503,7 +1498,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="3" customFormat="1">
       <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
@@ -1533,7 +1528,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:19" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="3" customFormat="1">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="12"/>
@@ -1549,7 +1544,7 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="3" customFormat="1">
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
@@ -1579,7 +1574,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:19" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="3" customFormat="1">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="12"/>
@@ -1595,7 +1590,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="3" customFormat="1">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
@@ -1629,7 +1624,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="3" customFormat="1">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="12"/>
@@ -1645,7 +1640,7 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="3" customFormat="1">
       <c r="A18" s="9" t="s">
         <v>38</v>
       </c>
@@ -1675,7 +1670,7 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="3" customFormat="1">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="12"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL389_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL389_00002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="5100" windowWidth="22960" windowHeight="9880" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="5960" yWindow="5100" windowWidth="22960" windowHeight="9880" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1088,7 +1088,7 @@
         <v>32</v>
       </c>
       <c r="J2" s="26">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>28</v>
@@ -1128,7 +1128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL389_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL389_00002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="5100" windowWidth="22960" windowHeight="9880" tabRatio="377"/>
+    <workbookView xWindow="5960" yWindow="5100" windowWidth="25140" windowHeight="10820" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>Ref Des</t>
   </si>
@@ -1008,7 +1008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -1128,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1615,9 +1615,7 @@
       <c r="H16" s="31">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="I16" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL389_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL389_00002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="5100" windowWidth="25140" windowHeight="10820" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="5960" yWindow="5100" windowWidth="25140" windowHeight="10820" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1075,12 +1075,14 @@
         <v>2</v>
       </c>
       <c r="E2" s="22">
-        <v>42289</v>
+        <v>42290</v>
       </c>
       <c r="F2" s="8">
-        <v>6.25E-2</v>
-      </c>
-      <c r="G2" s="7"/>
+        <v>4.027777777777778E-2</v>
+      </c>
+      <c r="G2" s="7">
+        <v>42390</v>
+      </c>
       <c r="H2" s="28" t="s">
         <v>31</v>
       </c>
@@ -1128,7 +1130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
